--- a/processed_data/known_genes_pathways_frequency.xlsx
+++ b/processed_data/known_genes_pathways_frequency.xlsx
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biosynthesis of cofactors</t>
+          <t xml:space="preserve"> Meiosis - yeast</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meiosis - yeast</t>
+          <t xml:space="preserve"> Biosynthesis of cofactors</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Glycerophospholipid metabolism</t>
+          <t xml:space="preserve"> Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Starch and sucrose metabolism</t>
+          <t xml:space="preserve"> Glycerophospholipid metabolism</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Longevity regulating pathway - multiple species</t>
+          <t xml:space="preserve"> Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cysteine and methionine metabolism</t>
+          <t xml:space="preserve"> Longevity regulating pathway - multiple species</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DNA replication</t>
+          <t xml:space="preserve"> 2-Oxocarboxylic acid metabolism</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-Oxocarboxylic acid metabolism</t>
+          <t xml:space="preserve"> DNA replication</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Citrate cycle (TCA cycle)</t>
+          <t xml:space="preserve"> Various types of N-glycan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Various types of N-glycan biosynthesis</t>
+          <t xml:space="preserve"> Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Autophagy - other</t>
+          <t xml:space="preserve"> Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pyrimidine metabolism</t>
+          <t xml:space="preserve"> Autophagy - other</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Methane metabolism</t>
+          <t xml:space="preserve"> Fatty acid metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fatty acid metabolism</t>
+          <t xml:space="preserve"> Methane metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Galactose metabolism</t>
+          <t xml:space="preserve"> Glycosylphosphatidylinositol (GPI)-anchor biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Glycosylphosphatidylinositol (GPI)-anchor biosynthesis</t>
+          <t xml:space="preserve"> Galactose metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arginine and proline metabolism</t>
+          <t xml:space="preserve"> RNA polymerase</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RNA polymerase</t>
+          <t xml:space="preserve"> Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fatty acid degradation</t>
+          <t xml:space="preserve"> Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nicotinate and nicotinamide metabolism</t>
+          <t xml:space="preserve"> Fatty acid degradation</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Porphyrin and chlorophyll metabolism</t>
+          <t xml:space="preserve"> Protein export</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biosynthesis of nucleotide sugars</t>
+          <t xml:space="preserve"> Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Protein export</t>
+          <t xml:space="preserve"> Biosynthesis of nucleotide sugars</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ABC transporters</t>
+          <t xml:space="preserve"> Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Steroid biosynthesis</t>
+          <t xml:space="preserve"> Thiamine metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+          <t xml:space="preserve"> SNARE interactions in vesicular transport</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thiamine metabolism</t>
+          <t xml:space="preserve"> Phenylalanine, tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SNARE interactions in vesicular transport</t>
+          <t xml:space="preserve"> ABC transporters</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sphingolipid metabolism</t>
+          <t xml:space="preserve"> Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Riboflavin metabolism</t>
+          <t xml:space="preserve"> Arginine biosynthesis</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arginine biosynthesis</t>
+          <t xml:space="preserve"> One carbon pool by folate</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> One carbon pool by folate</t>
+          <t xml:space="preserve"> Sphingolipid metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Histidine metabolism</t>
+          <t xml:space="preserve"> Valine, leucine and isoleucine degradation</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tyrosine metabolism</t>
+          <t xml:space="preserve"> Other types of O-glycan biosynthesis</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valine, leucine and isoleucine degradation</t>
+          <t xml:space="preserve"> Tyrosine metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other types of O-glycan biosynthesis</t>
+          <t xml:space="preserve"> Histidine metabolism</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lysine biosynthesis</t>
+          <t xml:space="preserve"> Ascorbate and aldarate metabolism</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fatty acid biosynthesis</t>
+          <t xml:space="preserve"> Sulfur metabolism</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ascorbate and aldarate metabolism</t>
+          <t xml:space="preserve"> Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sulfur metabolism</t>
+          <t xml:space="preserve"> Lysine biosynthesis</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biosynthesis of unsaturated fatty acids</t>
+          <t xml:space="preserve"> Non-homologous end-joining</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Non-homologous end-joining</t>
+          <t xml:space="preserve"> Biosynthesis of unsaturated fatty acids</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Folate biosynthesis</t>
+          <t xml:space="preserve"> Valine, leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valine, leucine and isoleucine biosynthesis</t>
+          <t xml:space="preserve"> Pentose and glucuronate interconversions</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pentose and glucuronate interconversions</t>
+          <t xml:space="preserve"> Folate biosynthesis</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phenylalanine metabolism</t>
+          <t xml:space="preserve"> Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nitrogen metabolism</t>
+          <t xml:space="preserve"> Phenylalanine metabolism</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sulfur relay system</t>
+          <t xml:space="preserve"> Cyanoamino acid metabolism</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biotin metabolism</t>
+          <t xml:space="preserve"> Butanoate metabolism</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Butanoate metabolism</t>
+          <t xml:space="preserve"> Biotin metabolism</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cyanoamino acid metabolism</t>
+          <t xml:space="preserve"> Mannose type O-glycan biosynthesis</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mannose type O-glycan biosynthesis</t>
+          <t xml:space="preserve"> Sulfur relay system</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arachidonic acid metabolism</t>
+          <t xml:space="preserve"> Phosphonate and phosphinate metabolism</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Monobactam biosynthesis</t>
+          <t xml:space="preserve"> Arachidonic acid metabolism</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phosphonate and phosphinate metabolism</t>
+          <t xml:space="preserve"> Monobactam biosynthesis</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C5-Branched dibasic acid metabolism</t>
+          <t xml:space="preserve"> Carbapenem biosynthesis</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carbapenem biosynthesis</t>
+          <t xml:space="preserve"> C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atrazine degradation</t>
+          <t xml:space="preserve"> Other glycan degradation</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other glycan degradation</t>
+          <t xml:space="preserve"> Atrazine degradation</t>
         </is>
       </c>
       <c r="B118" t="n">
